--- a/excel_file_2.xlsx
+++ b/excel_file_2.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User Pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88beb887e885a0a7/Desktop/dataanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDBD20F0-0AB9-4AB1-83E3-318B1F0C256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CDBD20F0-0AB9-4AB1-83E3-318B1F0C256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D4EC3DB-AE31-4E4F-B374-9CAFBCBE83B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="excel_file_2 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="correlation" sheetId="2" r:id="rId1"/>
+    <sheet name="excel_file_2 (1)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>number_courses</t>
   </si>
@@ -109,10 +110,13 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>Predicted 4.508</t>
+    <t>Residuals</t>
   </si>
   <si>
-    <t>Residuals</t>
+    <t>Predicted Marks</t>
+  </si>
+  <si>
+    <t>marks</t>
   </si>
 </sst>
 </file>
@@ -624,13 +628,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -3256,11 +3261,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BCAD2B-FE4C-4AB8-A1BC-739EF67E90E9}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.20484384671912551</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41733457278037556</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.94225389036405427</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3343,7 @@
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
@@ -3311,10 +3384,10 @@
       <c r="C3">
         <v>7.734</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3326,11 +3399,11 @@
       <c r="C4">
         <v>13.811</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0.14720736211685145</v>
+      <c r="E4" s="1">
+        <v>0.96972451346961919</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3343,11 +3416,11 @@
       <c r="C5">
         <v>53.018000000000001</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>2.1670007461401831E-2</v>
+      <c r="E5" s="1">
+        <v>0.94036563202388956</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3360,11 +3433,11 @@
       <c r="C6">
         <v>55.298999999999999</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>1.1584131249663707E-2</v>
+      <c r="E6" s="1">
+        <v>0.9391360574264439</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3377,11 +3450,11 @@
       <c r="C7">
         <v>17.821999999999999</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>2.3707370205874168</v>
+      <c r="E7" s="1">
+        <v>3.5343618198068234</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3394,11 +3467,11 @@
       <c r="C8">
         <v>29.888999999999999</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
-        <v>99</v>
+      <c r="E8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3436,20 +3509,20 @@
       <c r="C11">
         <v>30.861999999999998</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3463,23 +3536,23 @@
       <c r="C12">
         <v>42.036000000000001</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>12.07569652943539</v>
-      </c>
-      <c r="G12">
-        <v>12.07569652943539</v>
-      </c>
-      <c r="H12">
-        <v>2.1485498142622337</v>
-      </c>
-      <c r="I12">
-        <v>0.1459388207325957</v>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>19107.060376479105</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9553.5301882395524</v>
+      </c>
+      <c r="H12" s="1">
+        <v>764.78941088851889</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.0887081314606118E-60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3492,18 +3565,20 @@
       <c r="C13">
         <v>12.132</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>97</v>
       </c>
-      <c r="F13">
-        <v>545.17822001601905</v>
-      </c>
-      <c r="G13">
-        <v>5.620394020783702</v>
-      </c>
+      <c r="F13" s="1">
+        <v>1211.6962069108954</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12.4917134733082</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -3515,18 +3590,18 @@
       <c r="C14">
         <v>24.318000000000001</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
-        <v>98</v>
-      </c>
-      <c r="F14" s="1">
-        <v>557.25391654545444</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="E14" s="2">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20318.756583390001</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -3549,29 +3624,29 @@
       <c r="C16">
         <v>11.397</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3585,35 +3660,35 @@
       <c r="C17">
         <v>19.466000000000001</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>3.1842219012605057</v>
-      </c>
-      <c r="F17">
-        <v>0.65134618131659949</v>
-      </c>
-      <c r="G17">
-        <v>4.8886782368541324</v>
-      </c>
-      <c r="H17">
-        <v>4.0184215372243613E-6</v>
-      </c>
-      <c r="I17">
-        <v>1.8914800330797825</v>
-      </c>
-      <c r="J17">
-        <v>4.4769637694412285</v>
-      </c>
-      <c r="K17">
-        <v>1.8914800330797825</v>
-      </c>
-      <c r="L17">
-        <v>4.4769637694412285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>-7.4563462311783528</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.1744582155674961</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-6.3487539465807732</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6.982053536988366E-9</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-9.7873206826197716</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-5.125371779736934</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-9.7873206826197716</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-5.125371779736934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -3623,35 +3698,35 @@
       <c r="C18">
         <v>30.547999999999998</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.18676864495798309</v>
+        <v>1.8640507429538233</v>
       </c>
       <c r="F18" s="1">
-        <v>0.12741813798579874</v>
+        <v>0.20167145298358091</v>
       </c>
       <c r="G18" s="1">
-        <v>1.4657932372139924</v>
+        <v>9.2430074528475039</v>
       </c>
       <c r="H18" s="1">
-        <v>0.14593882073259049</v>
+        <v>5.7838606194951582E-15</v>
       </c>
       <c r="I18" s="1">
-        <v>-6.6121087821160801E-2</v>
+        <v>1.4637887342601812</v>
       </c>
       <c r="J18" s="1">
-        <v>0.43965837773712702</v>
+        <v>2.2643127516474655</v>
       </c>
       <c r="K18" s="1">
-        <v>-6.6121087821160801E-2</v>
+        <v>1.4637887342601812</v>
       </c>
       <c r="L18" s="1">
-        <v>0.43965837773712702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.2643127516474655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3660,6 +3735,33 @@
       </c>
       <c r="C19">
         <v>38.49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5.3991787873246002</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.15293954389765796</v>
+      </c>
+      <c r="G19" s="2">
+        <v>35.302699679407638</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3.6788458889339593E-57</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.0956361284925151</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5.7027214461566853</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5.0956361284925151</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5.7027214461566853</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3694,9 +3796,6 @@
       <c r="C22">
         <v>22.073</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3708,8 +3807,11 @@
       <c r="C23">
         <v>35.939</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3718,15 +3820,6 @@
       </c>
       <c r="C24">
         <v>12.209</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3739,14 +3832,14 @@
       <c r="C25">
         <v>28.042999999999999</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F25">
-        <v>-3.6485278361344551</v>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3759,14 +3852,14 @@
       <c r="C26">
         <v>16.516999999999999</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F26">
-        <v>-0.61152783613445516</v>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>22.475303970942416</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-3.2733039709424148</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3779,14 +3872,14 @@
       <c r="C27">
         <v>6.6230000000000002</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F27">
-        <v>4.1644721638655451</v>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.51817790422010213</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7.215822095779898</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3799,14 +3892,14 @@
       <c r="C28">
         <v>12.647</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F28">
-        <v>4.0664721638655443</v>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>16.915483881324914</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-3.1044838813249136</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3819,14 +3912,14 @@
       <c r="C29">
         <v>26.532</v>
       </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F29">
-        <v>-0.53352783613445531</v>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>46.430063255494851</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6.58793674450515</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3839,14 +3932,14 @@
       <c r="C30">
         <v>9.3330000000000002</v>
       </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F30">
-        <v>2.3184721638655446</v>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>49.629045220244691</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5.669954779755308</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3859,14 +3952,14 @@
       <c r="C31">
         <v>8.8369999999999997</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F31">
-        <v>-0.33152783613445536</v>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21.064721312643876</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-3.2427213126438765</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3879,14 +3972,14 @@
       <c r="C32">
         <v>24.172000000000001</v>
       </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F32">
-        <v>0.66547216386554497</v>
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30.871026985232167</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-0.98202698523216725</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,14 +3992,14 @@
       <c r="C33">
         <v>8.1</v>
       </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F33">
-        <v>2.4284721638655449</v>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20.291304684729624</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-3.027304684729625</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,14 +4012,14 @@
       <c r="C34">
         <v>15.038</v>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F34">
-        <v>3.6084721638655446</v>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>23.810235192738428</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-3.4622351927384294</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,14 +4032,14 @@
       <c r="C35">
         <v>39.965000000000003</v>
       </c>
-      <c r="D35">
-        <v>11</v>
-      </c>
-      <c r="E35">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F35">
-        <v>-3.3215278361344551</v>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>31.464936651837878</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-0.60293665183787937</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,14 +4052,14 @@
       <c r="C36">
         <v>17.170999999999999</v>
       </c>
-      <c r="D36">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F36">
-        <v>0.4734721638655448</v>
+      <c r="D36" s="1">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>37.835967620880901</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.2000323791191008</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3979,14 +4072,14 @@
       <c r="C37">
         <v>43.978000000000002</v>
       </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F37">
-        <v>0.52947216386554485</v>
+      <c r="D37" s="1">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7.8758615965367156</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.2561384034632841</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,14 +4092,14 @@
       <c r="C38">
         <v>13.119</v>
       </c>
-      <c r="D38">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F38">
-        <v>-0.83652783613445525</v>
+      <c r="D38" s="1">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1">
+        <v>28.365745094433571</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-4.0477450944335693</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,14 +4112,14 @@
       <c r="C39">
         <v>46.453000000000003</v>
       </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F39">
-        <v>0.51547216386554462</v>
+      <c r="D39" s="1">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>21.211896134708461</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-3.5398961347084601</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,14 +4132,14 @@
       <c r="C40">
         <v>41.357999999999997</v>
       </c>
-      <c r="D40">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F40">
-        <v>1.9744721638655451</v>
+      <c r="D40" s="1">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1">
+        <v>13.836617911223055</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-2.4396179112230545</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,14 +4152,14 @@
       <c r="C41">
         <v>51.142000000000003</v>
       </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F41">
-        <v>2.3354721638655449</v>
+      <c r="D41" s="1">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
+        <v>23.000358374639735</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-3.5343583746397336</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,14 +4172,14 @@
       <c r="C42">
         <v>7.3360000000000003</v>
       </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F42">
-        <v>3.9664721638655451</v>
+      <c r="D42" s="1">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1">
+        <v>32.74181096830015</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-2.1938109683001521</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,14 +4192,14 @@
       <c r="C43">
         <v>15.725</v>
       </c>
-      <c r="D43">
-        <v>19</v>
-      </c>
-      <c r="E43">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F43">
-        <v>0.2324721638655447</v>
+      <c r="D43" s="1">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1">
+        <v>40.283066739385802</v>
+      </c>
+      <c r="F43" s="1">
+        <v>-1.7930667393858002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,14 +4212,14 @@
       <c r="C44">
         <v>19.771000000000001</v>
       </c>
-      <c r="D44">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F44">
-        <v>0.98847216386554448</v>
+      <c r="D44" s="1">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45.361025855604581</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.6249741443954164</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,14 +4232,14 @@
       <c r="C45">
         <v>10.429</v>
       </c>
-      <c r="D45">
-        <v>21</v>
-      </c>
-      <c r="E45">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F45">
-        <v>2.3814721638655452</v>
+      <c r="D45" s="1">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>28.928593749642168</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-3.795593749642169</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,14 +4252,14 @@
       <c r="C46">
         <v>9.7420000000000009</v>
       </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-      <c r="E46">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F46">
-        <v>-1.693527836134455</v>
+      <c r="D46" s="1">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1">
+        <v>25.554169941044272</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-3.4811699410442714</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,14 +4272,14 @@
       <c r="C47">
         <v>8.9239999999999995</v>
       </c>
-      <c r="D47">
-        <v>23</v>
-      </c>
-      <c r="E47">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F47">
-        <v>1.1304721638655448</v>
+      <c r="D47" s="1">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1">
+        <v>36.803327477695092</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-0.86432747769509177</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,14 +4292,14 @@
       <c r="C48">
         <v>16.702999999999999</v>
       </c>
-      <c r="D48">
-        <v>24</v>
-      </c>
-      <c r="E48">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F48">
-        <v>-0.10952783613445538</v>
+      <c r="D48" s="1">
+        <v>23</v>
+      </c>
+      <c r="E48" s="1">
+        <v>12.937623176393519</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-0.72862317639351915</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,14 +4312,14 @@
       <c r="C49">
         <v>22.701000000000001</v>
       </c>
-      <c r="D49">
-        <v>25</v>
-      </c>
-      <c r="E49">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F49">
-        <v>-2.3375278361344551</v>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1">
+        <v>31.913005557705837</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-3.8700055577058379</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,14 +4332,14 @@
       <c r="C50">
         <v>26.882000000000001</v>
       </c>
-      <c r="D50">
-        <v>26</v>
-      </c>
-      <c r="E50">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F50">
-        <v>-3.2365278361344552</v>
+      <c r="D50" s="1">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1">
+        <v>19.625871632561861</v>
+      </c>
+      <c r="F50" s="1">
+        <v>-3.1088716325618613</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,14 +4352,14 @@
       <c r="C51">
         <v>19.106000000000002</v>
       </c>
-      <c r="D51">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F51">
-        <v>-0.3003710609243706</v>
+      <c r="D51" s="1">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5.7324505514488298</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.89054944855117046</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,14 +4372,14 @@
       <c r="C52">
         <v>40.601999999999997</v>
       </c>
-      <c r="D52">
-        <v>28</v>
-      </c>
-      <c r="E52">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F52">
-        <v>-3.9620651260504212</v>
+      <c r="D52" s="1">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8.3347917934593063</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4.3122082065406939</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,14 +4392,14 @@
       <c r="C53">
         <v>22.184000000000001</v>
       </c>
-      <c r="D53">
-        <v>29</v>
-      </c>
-      <c r="E53">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F53">
-        <v>-2.6322964810924381</v>
+      <c r="D53" s="1">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1">
+        <v>31.093664443359334</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-4.5616644433593336</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,14 +4412,14 @@
       <c r="C54">
         <v>7.8920000000000003</v>
       </c>
-      <c r="D54">
-        <v>30</v>
-      </c>
-      <c r="E54">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F54">
-        <v>-0.81437106092437084</v>
+      <c r="D54" s="1">
+        <v>29</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.7061793744134008</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.6268206255865998</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,14 +4432,14 @@
       <c r="C55">
         <v>36.652999999999999</v>
       </c>
-      <c r="D55">
-        <v>31</v>
-      </c>
-      <c r="E55">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F55">
-        <v>-1.8215278361344551</v>
+      <c r="D55" s="1">
+        <v>30</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7.013389985371596</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.8236100146284038</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4359,14 +4452,14 @@
       <c r="C56">
         <v>53.158000000000001</v>
       </c>
-      <c r="D56">
-        <v>32</v>
-      </c>
-      <c r="E56">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F56">
-        <v>-3.7463710609243708</v>
+      <c r="D56" s="1">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1">
+        <v>28.318486546674489</v>
+      </c>
+      <c r="F56" s="1">
+        <v>-4.1464865466744882</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,14 +4472,14 @@
       <c r="C57">
         <v>18.238</v>
       </c>
-      <c r="D57">
-        <v>33</v>
-      </c>
-      <c r="E57">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F57">
-        <v>2.2891662289915962</v>
+      <c r="D57" s="1">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8.518426805708323</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-0.41842680570832336</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,14 +4492,14 @@
       <c r="C58">
         <v>53.359000000000002</v>
       </c>
-      <c r="D58">
-        <v>34</v>
-      </c>
-      <c r="E58">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F58">
-        <v>0.33847216386554502</v>
+      <c r="D58" s="1">
+        <v>33</v>
+      </c>
+      <c r="E58" s="1">
+        <v>12.48809434223876</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.54990565776124</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4419,14 +4512,14 @@
       <c r="C59">
         <v>51.582999999999998</v>
       </c>
-      <c r="D59">
-        <v>35</v>
-      </c>
-      <c r="E59">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F59">
-        <v>3.798472163865545</v>
+      <c r="D59" s="1">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1">
+        <v>39.330143150163003</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.63485684983699997</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4439,14 +4532,14 @@
       <c r="C60">
         <v>31.236000000000001</v>
       </c>
-      <c r="D60">
-        <v>36</v>
-      </c>
-      <c r="E60">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F60">
-        <v>-0.96529648109243782</v>
+      <c r="D60" s="1">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1">
+        <v>20.180652986329463</v>
+      </c>
+      <c r="F60" s="1">
+        <v>-3.0096529863294634</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4459,14 +4552,14 @@
       <c r="C61">
         <v>51.343000000000004</v>
       </c>
-      <c r="D61">
-        <v>37</v>
-      </c>
-      <c r="E61">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F61">
-        <v>2.9781662289915962</v>
+      <c r="D61" s="1">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1">
+        <v>38.861811590472577</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5.1161884095274246</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4479,14 +4572,14 @@
       <c r="C62">
         <v>10.522</v>
       </c>
-      <c r="D62">
-        <v>38</v>
-      </c>
-      <c r="E62">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F62">
-        <v>2.0413975840336134</v>
+      <c r="D62" s="1">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1">
+        <v>16.013821023841704</v>
+      </c>
+      <c r="F62" s="1">
+        <v>-2.894821023841704</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4499,14 +4592,14 @@
       <c r="C63">
         <v>10.843999999999999</v>
       </c>
-      <c r="D63">
-        <v>39</v>
-      </c>
-      <c r="E63">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F63">
-        <v>3.4701662289915962</v>
+      <c r="D63" s="1">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43.050177334629652</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3.4028226653703513</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,14 +4612,14 @@
       <c r="C64">
         <v>19.59</v>
       </c>
-      <c r="D64">
-        <v>40</v>
-      </c>
-      <c r="E64">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F64">
-        <v>-3.7912964810924379</v>
+      <c r="D64" s="1">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1">
+        <v>40.864843987090026</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.4931560129099708</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,14 +4632,14 @@
       <c r="C65">
         <v>21.379000000000001</v>
       </c>
-      <c r="D65">
-        <v>41</v>
-      </c>
-      <c r="E65">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F65">
-        <v>-1.5508337710084041</v>
+      <c r="D65" s="1">
+        <v>40</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45.706573297993359</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5.4354267020066445</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4559,14 +4652,14 @@
       <c r="C66">
         <v>12.590999999999999</v>
       </c>
-      <c r="D66">
-        <v>42</v>
-      </c>
-      <c r="E66">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F66">
-        <v>-0.71383377100840395</v>
+      <c r="D66" s="1">
+        <v>41</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.75574177086238459</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6.5802582291376162</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,14 +4672,14 @@
       <c r="C67">
         <v>13.561999999999999</v>
       </c>
-      <c r="D67">
-        <v>43</v>
-      </c>
-      <c r="E67">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F67">
-        <v>-2.5610651260504214</v>
+      <c r="D67" s="1">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1">
+        <v>18.597296606836537</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-2.872296606836537</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,14 +4692,14 @@
       <c r="C68">
         <v>27.568999999999999</v>
       </c>
-      <c r="D68">
-        <v>44</v>
-      </c>
-      <c r="E68">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F68">
-        <v>-1.9772964810924381</v>
+      <c r="D68" s="1">
+        <v>43</v>
+      </c>
+      <c r="E68" s="1">
+        <v>23.116409251827228</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-3.3454092518272276</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,14 +4712,14 @@
       <c r="C69">
         <v>6.1849999999999996</v>
       </c>
-      <c r="D69">
-        <v>45</v>
-      </c>
-      <c r="E69">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F69">
-        <v>-1.6835278361344552</v>
+      <c r="D69" s="1">
+        <v>44</v>
+      </c>
+      <c r="E69" s="1">
+        <v>10.270428855455165</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.15857114454483501</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4639,14 +4732,14 @@
       <c r="C70">
         <v>8.92</v>
       </c>
-      <c r="D70">
-        <v>46</v>
-      </c>
-      <c r="E70">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F70">
-        <v>-0.13429648109243786</v>
+      <c r="D70" s="1">
+        <v>45</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10.549852091069209</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-0.80785209106920775</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,14 +4752,14 @@
       <c r="C71">
         <v>21.4</v>
       </c>
-      <c r="D71">
-        <v>47</v>
-      </c>
-      <c r="E71">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F71">
-        <v>0.8477035189075619</v>
+      <c r="D71" s="1">
+        <v>46</v>
+      </c>
+      <c r="E71" s="1">
+        <v>9.2635134783591191</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-0.3395134783591196</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,14 +4772,14 @@
       <c r="C72">
         <v>16.606000000000002</v>
       </c>
-      <c r="D72">
-        <v>48</v>
-      </c>
-      <c r="E72">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F72">
-        <v>1.8904721638655446</v>
+      <c r="D72" s="1">
+        <v>47</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20.500538596108449</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-3.7975385961084491</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,14 +4792,14 @@
       <c r="C73">
         <v>13.416</v>
       </c>
-      <c r="D73">
-        <v>49</v>
-      </c>
-      <c r="E73">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F73">
-        <v>-0.20506512605042149</v>
+      <c r="D73" s="1">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1">
+        <v>25.802532165261205</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-3.1015321652612045</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,14 +4812,14 @@
       <c r="C74">
         <v>20.398</v>
       </c>
-      <c r="D74">
-        <v>50</v>
-      </c>
-      <c r="E74">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F74">
-        <v>2.3981662289915961</v>
+      <c r="D74" s="1">
+        <v>49</v>
+      </c>
+      <c r="E74" s="1">
+        <v>28.560178464257238</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-1.6781784642572362</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,14 +4832,14 @@
       <c r="C75">
         <v>7.0140000000000002</v>
       </c>
-      <c r="D75">
-        <v>51</v>
-      </c>
-      <c r="E75">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F75">
-        <v>-0.17483377100840425</v>
+      <c r="D75" s="1">
+        <v>50</v>
+      </c>
+      <c r="E75" s="1">
+        <v>22.990894078391925</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-3.8848940783919232</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,14 +4852,14 @@
       <c r="C76">
         <v>39.951999999999998</v>
       </c>
-      <c r="D76">
-        <v>52</v>
-      </c>
-      <c r="E76">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F76">
-        <v>-3.1602964810924381</v>
+      <c r="D76" s="1">
+        <v>51</v>
+      </c>
+      <c r="E76" s="1">
+        <v>39.918653637981386</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.68334636201861088</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,14 +4872,14 @@
       <c r="C77">
         <v>6.2169999999999996</v>
       </c>
-      <c r="D77">
-        <v>53</v>
-      </c>
-      <c r="E77">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F77">
-        <v>1.5573975840336134</v>
+      <c r="D77" s="1">
+        <v>52</v>
+      </c>
+      <c r="E77" s="1">
+        <v>26.026566618195186</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-3.8425666181951854</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,14 +4892,14 @@
       <c r="C78">
         <v>36.746000000000002</v>
       </c>
-      <c r="D78">
-        <v>54</v>
-      </c>
-      <c r="E78">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F78">
-        <v>2.9126289390756295</v>
+      <c r="D78" s="1">
+        <v>53</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4.1626235856642078</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3.7293764143357926</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,14 +4912,14 @@
       <c r="C79">
         <v>38.277999999999999</v>
       </c>
-      <c r="D79">
-        <v>55</v>
-      </c>
-      <c r="E79">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F79">
-        <v>-1.5786024159663872</v>
+      <c r="D79" s="1">
+        <v>54</v>
+      </c>
+      <c r="E79" s="1">
+        <v>38.25164145402492</v>
+      </c>
+      <c r="F79" s="1">
+        <v>-1.5986414540249214</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,14 +4932,14 @@
       <c r="C80">
         <v>49.543999999999997</v>
       </c>
-      <c r="D80">
-        <v>56</v>
-      </c>
-      <c r="E80">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F80">
-        <v>2.9626289390756293</v>
+      <c r="D80" s="1">
+        <v>55</v>
+      </c>
+      <c r="E80" s="1">
+        <v>48.441225887033269</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.716774112966732</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,14 +4952,14 @@
       <c r="C81">
         <v>6.3490000000000002</v>
       </c>
-      <c r="D81">
-        <v>57</v>
-      </c>
-      <c r="E81">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F81">
-        <v>3.157397584033613</v>
+      <c r="D81" s="1">
+        <v>56</v>
+      </c>
+      <c r="E81" s="1">
+        <v>21.319816776974967</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-3.0818167769749678</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,14 +4972,14 @@
       <c r="C82">
         <v>54.320999999999998</v>
       </c>
-      <c r="D82">
-        <v>58</v>
-      </c>
-      <c r="E82">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F82">
-        <v>2.4534721638655452</v>
+      <c r="D82" s="1">
+        <v>57</v>
+      </c>
+      <c r="E82" s="1">
+        <v>48.711184826399503</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4.6478151736004989</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4899,14 +4992,14 @@
       <c r="C83">
         <v>17.704999999999998</v>
       </c>
-      <c r="D83">
-        <v>59</v>
-      </c>
-      <c r="E83">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F83">
-        <v>2.7896289390756293</v>
+      <c r="D83" s="1">
+        <v>58</v>
+      </c>
+      <c r="E83" s="1">
+        <v>46.890327513744275</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4.6926724862557236</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,14 +5012,14 @@
       <c r="C84">
         <v>44.098999999999997</v>
       </c>
-      <c r="D84">
-        <v>60</v>
-      </c>
-      <c r="E84">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F84">
-        <v>-3.9288337710084043</v>
+      <c r="D84" s="1">
+        <v>59</v>
+      </c>
+      <c r="E84" s="1">
+        <v>31.599916121520994</v>
+      </c>
+      <c r="F84" s="1">
+        <v>-0.36391612152099384</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4939,14 +5032,14 @@
       <c r="C85">
         <v>16.106000000000002</v>
       </c>
-      <c r="D85">
-        <v>61</v>
-      </c>
-      <c r="E85">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F85">
-        <v>-1.4932964810924378</v>
+      <c r="D85" s="1">
+        <v>60</v>
+      </c>
+      <c r="E85" s="1">
+        <v>47.777126896192343</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3.565873103807661</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4959,14 +5052,14 @@
       <c r="C86">
         <v>16.460999999999999</v>
       </c>
-      <c r="D86">
-        <v>62</v>
-      </c>
-      <c r="E86">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F86">
-        <v>-0.69883377100840427</v>
+      <c r="D86" s="1">
+        <v>61</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5.7580494505786364</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4.7639505494213639</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,14 +5072,14 @@
       <c r="C87">
         <v>39.957000000000001</v>
       </c>
-      <c r="D87">
-        <v>63</v>
-      </c>
-      <c r="E87">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F87">
-        <v>1.1244721638655446</v>
+      <c r="D87" s="1">
+        <v>62</v>
+      </c>
+      <c r="E87" s="1">
+        <v>13.163054624134318</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-2.3190546241343188</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4999,14 +5092,14 @@
       <c r="C88">
         <v>23.149000000000001</v>
       </c>
-      <c r="D88">
-        <v>64</v>
-      </c>
-      <c r="E88">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F88">
-        <v>-4.3616024159663871</v>
+      <c r="D88" s="1">
+        <v>63</v>
+      </c>
+      <c r="E88" s="1">
+        <v>23.197396933637094</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-3.6073969336370943</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5019,14 +5112,14 @@
       <c r="C89">
         <v>6.0529999999999999</v>
       </c>
-      <c r="D89">
-        <v>65</v>
-      </c>
-      <c r="E89">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F89">
-        <v>-2.1628337710084042</v>
+      <c r="D89" s="1">
+        <v>64</v>
+      </c>
+      <c r="E89" s="1">
+        <v>24.424407513166596</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-3.0454075131665945</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5039,14 +5132,14 @@
       <c r="C90">
         <v>11.253</v>
       </c>
-      <c r="D90">
-        <v>66</v>
-      </c>
-      <c r="E90">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F90">
-        <v>1.5417035189075619</v>
+      <c r="D90" s="1">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6.2939022118506083</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6.297097788149391</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,14 +5152,14 @@
       <c r="C91">
         <v>40.024000000000001</v>
       </c>
-      <c r="D91">
-        <v>67</v>
-      </c>
-      <c r="E91">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F91">
-        <v>-3.1945278361344549</v>
+      <c r="D91" s="1">
+        <v>66</v>
+      </c>
+      <c r="E91" s="1">
+        <v>15.29299918899388</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-1.7309991889938807</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5079,14 +5172,14 @@
       <c r="C92">
         <v>24.393999999999998</v>
       </c>
-      <c r="D92">
-        <v>68</v>
-      </c>
-      <c r="E92">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F92">
-        <v>-2.536296481092438</v>
+      <c r="D92" s="1">
+        <v>67</v>
+      </c>
+      <c r="E92" s="1">
+        <v>29.549562243664475</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-1.9805622436644761</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,14 +5192,14 @@
       <c r="C93">
         <v>19.564</v>
       </c>
-      <c r="D93">
-        <v>69</v>
-      </c>
-      <c r="E93">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F93">
-        <v>-0.35683377100840419</v>
+      <c r="D93" s="1">
+        <v>68</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.1053543307116471</v>
+      </c>
+      <c r="F93" s="1">
+        <v>5.079645669288352</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,14 +5212,14 @@
       <c r="C94">
         <v>23.916</v>
       </c>
-      <c r="D94">
-        <v>70</v>
-      </c>
-      <c r="E94">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F94">
-        <v>-0.1952964810924378</v>
+      <c r="D94" s="1">
+        <v>69</v>
+      </c>
+      <c r="E94" s="1">
+        <v>7.5317111489547584</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.3882888510452416</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5139,14 +5232,14 @@
       <c r="C95">
         <v>42.426000000000002</v>
       </c>
-      <c r="D95">
-        <v>71</v>
-      </c>
-      <c r="E95">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F95">
-        <v>-1.6000651260504215</v>
+      <c r="D95" s="1">
+        <v>70</v>
+      </c>
+      <c r="E95" s="1">
+        <v>25.043916078902107</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-3.6439160789021088</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5159,14 +5252,14 @@
       <c r="C96">
         <v>24.451000000000001</v>
       </c>
-      <c r="D96">
-        <v>72</v>
-      </c>
-      <c r="E96">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F96">
-        <v>0.88847216386554484</v>
+      <c r="D96" s="1">
+        <v>71</v>
+      </c>
+      <c r="E96" s="1">
+        <v>20.171188690081646</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-3.5651886900816443</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,14 +5272,14 @@
       <c r="C97">
         <v>19.128</v>
       </c>
-      <c r="D97">
-        <v>73</v>
-      </c>
-      <c r="E97">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F97">
-        <v>-2.1155278361344552</v>
+      <c r="D97" s="1">
+        <v>72</v>
+      </c>
+      <c r="E97" s="1">
+        <v>15.459039670074105</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-2.0430396700741049</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5199,14 +5292,14 @@
       <c r="C98">
         <v>5.609</v>
       </c>
-      <c r="D98">
-        <v>74</v>
-      </c>
-      <c r="E98">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F98">
-        <v>3.0227035189075617</v>
+      <c r="D98" s="1">
+        <v>73</v>
+      </c>
+      <c r="E98" s="1">
+        <v>23.15020131935799</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-2.7522013193579902</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,14 +5312,14 @@
       <c r="C99">
         <v>41.444000000000003</v>
       </c>
-      <c r="D99">
-        <v>75</v>
-      </c>
-      <c r="E99">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F99">
-        <v>-2.9415278361344552</v>
+      <c r="D99" s="1">
+        <v>74</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6.9310682422348906</v>
+      </c>
+      <c r="F99" s="1">
+        <v>8.2931757765109637E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,14 +5332,14 @@
       <c r="C100">
         <v>12.026999999999999</v>
       </c>
-      <c r="D100">
-        <v>76</v>
-      </c>
-      <c r="E100">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F100">
-        <v>2.2609348739495783</v>
+      <c r="D100" s="1">
+        <v>75</v>
+      </c>
+      <c r="E100" s="1">
+        <v>37.545746027692211</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2.4062539723077876</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5259,267 +5352,278 @@
       <c r="C101">
         <v>32.356999999999999</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
+        <v>76</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2.4713465639047714</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.7456534360952283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="1">
         <v>77</v>
       </c>
-      <c r="E101">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F101">
-        <v>1.3066289390756296</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D102">
+      <c r="E102" s="1">
+        <v>36.305268967934389</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.4407310320656137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="1">
         <v>78</v>
       </c>
-      <c r="E102">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F102">
-        <v>2.9593975840336126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D103">
+      <c r="E103" s="1">
+        <v>39.770144754589964</v>
+      </c>
+      <c r="F103" s="1">
+        <v>-1.4921447545899653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="1">
         <v>79</v>
       </c>
-      <c r="E103">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F103">
-        <v>-2.939527836134455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D104">
+      <c r="E104" s="1">
+        <v>45.821290113854005</v>
+      </c>
+      <c r="F104" s="1">
+        <v>3.7227098861459922</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="1">
         <v>80</v>
       </c>
-      <c r="E104">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F104">
-        <v>3.4653975840336129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D105">
+      <c r="E105" s="1">
+        <v>2.4821449214794207</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3.8668550785205795</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="1">
         <v>81</v>
       </c>
-      <c r="E105">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F105">
-        <v>-2.4163710609243707</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D106">
+      <c r="E106" s="1">
+        <v>48.553274580240249</v>
+      </c>
+      <c r="F106" s="1">
+        <v>5.7677254197597492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="1">
         <v>82</v>
       </c>
-      <c r="E106">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F106">
-        <v>3.4787035189075621</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D107">
+      <c r="E107" s="1">
+        <v>19.66900212938048</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-1.9640021293804821</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="1">
         <v>83</v>
       </c>
-      <c r="E107">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F107">
-        <v>-0.92106512605042123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D108">
+      <c r="E108" s="1">
+        <v>40.007771554712228</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4.0912284452877685</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="1">
         <v>84</v>
       </c>
-      <c r="E108">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F108">
-        <v>-2.6963710609243705</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D109">
+      <c r="E109" s="1">
+        <v>19.12508206666751</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-3.019082066667508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="1">
         <v>85</v>
       </c>
-      <c r="E109">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F109">
-        <v>1.5226289390756289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D110">
+      <c r="E110" s="1">
+        <v>18.157232068929591</v>
+      </c>
+      <c r="F110" s="1">
+        <v>-1.6962320689295929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D111" s="1">
         <v>86</v>
       </c>
-      <c r="E110">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F110">
-        <v>-0.42460241596638681</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D111">
+      <c r="E111" s="1">
+        <v>40.936367372652072</v>
+      </c>
+      <c r="F111" s="1">
+        <v>-0.97936737265207086</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="1">
         <v>87</v>
       </c>
-      <c r="E111">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F111">
-        <v>-2.7115278361344552</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D112">
+      <c r="E112" s="1">
+        <v>27.550469097547563</v>
+      </c>
+      <c r="F112" s="1">
+        <v>-4.4014690975475617</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113" s="1">
         <v>88</v>
       </c>
-      <c r="E112">
-        <v>4.1180651260504213</v>
-      </c>
-      <c r="F112">
-        <v>-2.3150651260504214</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D113">
+      <c r="E113" s="1">
+        <v>3.7131576849894286</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2.3398423150105714</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="1">
         <v>89</v>
       </c>
-      <c r="E113">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F113">
-        <v>1.8843975840336133</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D114">
+      <c r="E114" s="1">
+        <v>11.598626837137017</v>
+      </c>
+      <c r="F114" s="1">
+        <v>-0.34562683713701681</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="1">
         <v>90</v>
       </c>
-      <c r="E114">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F114">
-        <v>-0.3096024159663866</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D115">
+      <c r="E115" s="1">
+        <v>40.01717291748006</v>
+      </c>
+      <c r="F115" s="1">
+        <v>6.8270825199405749E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="1">
         <v>91</v>
       </c>
-      <c r="E115">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F115">
-        <v>-1.9483710609243707</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D116">
+      <c r="E116" s="1">
+        <v>28.171374658089888</v>
+      </c>
+      <c r="F116" s="1">
+        <v>-3.7773746580898901</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="1">
         <v>92</v>
       </c>
-      <c r="E116">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F116">
-        <v>1.0957035189075621</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D117">
+      <c r="E117" s="1">
+        <v>22.195817801848392</v>
+      </c>
+      <c r="F117" s="1">
+        <v>-2.631817801848392</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="1">
         <v>93</v>
       </c>
-      <c r="E117">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F117">
-        <v>1.7926289390756294</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D118">
+      <c r="E118" s="1">
+        <v>27.141528504517705</v>
+      </c>
+      <c r="F118" s="1">
+        <v>-3.2255285045177047</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119" s="1">
         <v>94</v>
       </c>
-      <c r="E118">
-        <v>4.6783710609243707</v>
-      </c>
-      <c r="F118">
-        <v>-0.75937106092437068</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D119">
+      <c r="E119" s="1">
+        <v>42.394145645229727</v>
+      </c>
+      <c r="F119" s="1">
+        <v>3.185435477027454E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="1">
         <v>95</v>
       </c>
-      <c r="E119">
-        <v>4.3048337710084041</v>
-      </c>
-      <c r="F119">
-        <v>-0.7438337710084042</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D120">
+      <c r="E120" s="1">
+        <v>28.615441379977341</v>
+      </c>
+      <c r="F120" s="1">
+        <v>-4.1644413799773403</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="1">
         <v>96</v>
       </c>
-      <c r="E120">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F120">
-        <v>-3.443527836134455</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D121">
+      <c r="E121" s="1">
+        <v>22.954433888207486</v>
+      </c>
+      <c r="F121" s="1">
+        <v>-3.826433888207486</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="1">
         <v>97</v>
       </c>
-      <c r="E121">
-        <v>3.931296481092438</v>
-      </c>
-      <c r="F121">
-        <v>3.2317035189075622</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D122">
+      <c r="E122" s="1">
+        <v>-0.2390411873321785</v>
+      </c>
+      <c r="F122" s="1">
+        <v>5.8480411873321785</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
         <v>98</v>
       </c>
-      <c r="E122">
-        <v>4.491602415966387</v>
-      </c>
-      <c r="F122">
-        <v>-4.1826024159663868</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D123">
-        <v>99</v>
-      </c>
-      <c r="E123">
-        <v>3.7445278361344552</v>
-      </c>
-      <c r="F123">
-        <v>2.5904721638655448</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="1">
+        <v>38.674174394243053</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2.7698256057569495</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124" s="1">
         <v>99</v>
       </c>
       <c r="E124" s="1">
-        <v>3.7445278361344552</v>
+        <v>7.2603552147817121</v>
       </c>
       <c r="F124" s="1">
-        <v>2.5904721638655448</v>
+        <v>4.7666447852182872</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="2">
+        <v>100</v>
+      </c>
+      <c r="E125" s="2">
+        <v>32.339603615384455</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1.7396384615544491E-2</v>
       </c>
     </row>
   </sheetData>
